--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slikh\Documents\projects\Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F45B00-E7DD-493F-BB22-66A3C9E8D81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E9B354-7FB4-47FB-A90B-79E332A47F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{287FB1F7-FC9A-40CA-9D53-AF3733633484}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CB.SC.U4CSE23548</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>V KIREETI</t>
-  </si>
-  <si>
-    <t>CB.SC.U4CSE23158</t>
-  </si>
-  <si>
-    <t>K SNEHA LATHA REDDY</t>
   </si>
   <si>
     <t>Name</t>
@@ -409,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9326A-7795-4602-9EDC-280CD98723B7}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,10 +417,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -443,14 +437,6 @@
       </c>
       <c r="B3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
